--- a/src/main/resources/student.xlsx
+++ b/src/main/resources/student.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7252" uniqueCount="1480">
   <si>
-    <t>学号</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>姓名</t>
@@ -4954,7 +4954,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
